--- a/data/trans_orig/P1421-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1421-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>9038</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4174</v>
+        <v>4488</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16071</v>
+        <v>16476</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0331045738418494</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01528906290516787</v>
+        <v>0.01643741547299513</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05886563506034512</v>
+        <v>0.0603488234395327</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -765,19 +765,19 @@
         <v>12417</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6533</v>
+        <v>6798</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21900</v>
+        <v>22216</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04760419888092876</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02504703740915218</v>
+        <v>0.02606124503144956</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0839614110800045</v>
+        <v>0.08517105616700789</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -786,19 +786,19 @@
         <v>21455</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13414</v>
+        <v>12870</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33004</v>
+        <v>31831</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04018908909174412</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02512718813694828</v>
+        <v>0.02410803804148066</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06182242275545251</v>
+        <v>0.05962559674312672</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>263972</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>256939</v>
+        <v>256534</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>268836</v>
+        <v>268522</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9668954261581506</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.941134364939655</v>
+        <v>0.9396511765604674</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9847109370948322</v>
+        <v>0.9835625845270048</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>234</v>
@@ -836,19 +836,19 @@
         <v>248421</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>238938</v>
+        <v>238622</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>254305</v>
+        <v>254040</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9523958011190712</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9160385889199958</v>
+        <v>0.9148289438329923</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9749529625908481</v>
+        <v>0.9739387549685505</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>496</v>
@@ -857,19 +857,19 @@
         <v>512393</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>500844</v>
+        <v>502017</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>520434</v>
+        <v>520978</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9598109109082559</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.938177577244548</v>
+        <v>0.9403744032568734</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9748728118630519</v>
+        <v>0.9758919619585193</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>4019</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9504</v>
+        <v>8969</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00815132402632248</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002148444391651732</v>
+        <v>0.002155663087702162</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01927542120886191</v>
+        <v>0.01818911495806553</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -982,19 +982,19 @@
         <v>44005</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33725</v>
+        <v>33086</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>57992</v>
+        <v>57709</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0873199657675594</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06692174794745798</v>
+        <v>0.06565395222171864</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1150742291325632</v>
+        <v>0.114512922592157</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -1003,19 +1003,19 @@
         <v>48024</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36392</v>
+        <v>36226</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>61555</v>
+        <v>62595</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04816736757048522</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03650054138671538</v>
+        <v>0.03633412386584269</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06173923497636036</v>
+        <v>0.0627813875148383</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>489056</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>483571</v>
+        <v>484106</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>492016</v>
+        <v>492012</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9918486759736775</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9807245787911381</v>
+        <v>0.9818108850419345</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9978515556083483</v>
+        <v>0.9978443369122978</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>456</v>
@@ -1053,19 +1053,19 @@
         <v>459944</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>445957</v>
+        <v>446240</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>470224</v>
+        <v>470863</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9126800342324406</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8849257708674372</v>
+        <v>0.885487077407843</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9330782520525422</v>
+        <v>0.9343460477782813</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>917</v>
@@ -1074,19 +1074,19 @@
         <v>949000</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>935469</v>
+        <v>934429</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>960632</v>
+        <v>960798</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9518326324295148</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9382607650236395</v>
+        <v>0.9372186124851617</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9634994586132845</v>
+        <v>0.9636658761341574</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>6402</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2643</v>
+        <v>2724</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13801</v>
+        <v>14532</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02007847867390907</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008288214401837898</v>
+        <v>0.008543828092517346</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04328560119524874</v>
+        <v>0.04557756481262391</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1199,19 +1199,19 @@
         <v>14122</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8101</v>
+        <v>7213</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23394</v>
+        <v>23353</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04210254401364824</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02415372457725018</v>
+        <v>0.02150514252908032</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06974743788922755</v>
+        <v>0.06962466649141309</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -1220,19 +1220,19 @@
         <v>20524</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12901</v>
+        <v>12049</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30323</v>
+        <v>28940</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03136934072439278</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01971871994323948</v>
+        <v>0.01841623298781988</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04634696724595834</v>
+        <v>0.04423326739059048</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>312444</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>305045</v>
+        <v>304314</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>316203</v>
+        <v>316122</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9799215213260909</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9567143988047515</v>
+        <v>0.954422435187376</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9917117855981621</v>
+        <v>0.9914561719074827</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>321</v>
@@ -1270,19 +1270,19 @@
         <v>321290</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>312018</v>
+        <v>312059</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>327311</v>
+        <v>328199</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9578974559863518</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9302525621107725</v>
+        <v>0.9303753335085871</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9758462754227499</v>
+        <v>0.9784948574709197</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>625</v>
@@ -1291,19 +1291,19 @@
         <v>633734</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>623935</v>
+        <v>625318</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>641357</v>
+        <v>642209</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9686306592756072</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9536530327540416</v>
+        <v>0.9557667326094095</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9802812800567605</v>
+        <v>0.9815837670121801</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>6382</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2011</v>
+        <v>2640</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13956</v>
+        <v>13614</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01779296755177886</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005606920989031912</v>
+        <v>0.007359800158918572</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03891032746249808</v>
+        <v>0.03795590517867659</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -1416,19 +1416,19 @@
         <v>15642</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9275</v>
+        <v>9166</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25348</v>
+        <v>24683</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04210868624651682</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02496935863391236</v>
+        <v>0.02467634997491217</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06824065750333864</v>
+        <v>0.06645020112387733</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -1437,19 +1437,19 @@
         <v>22023</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13422</v>
+        <v>14579</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32491</v>
+        <v>32969</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0301637164766929</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01838303357067297</v>
+        <v>0.01996749763619414</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04450002537396958</v>
+        <v>0.04515467863397678</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>352289</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>344715</v>
+        <v>345057</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>356660</v>
+        <v>356031</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9822070324482212</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.961089672537502</v>
+        <v>0.9620440948213235</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9943930790109682</v>
+        <v>0.9926401998410814</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>368</v>
@@ -1487,19 +1487,19 @@
         <v>355814</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>346108</v>
+        <v>346773</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>362181</v>
+        <v>362290</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9578913137534831</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9317593424966614</v>
+        <v>0.9335497988761229</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9750306413660877</v>
+        <v>0.9753236500250878</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>724</v>
@@ -1508,19 +1508,19 @@
         <v>708104</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>697636</v>
+        <v>697158</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>716705</v>
+        <v>715548</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9698362835233071</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9554999746260305</v>
+        <v>0.9548453213660235</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9816169664293276</v>
+        <v>0.9800325023638059</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>2805</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7928</v>
+        <v>7465</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01379716593418853</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004471618907457206</v>
+        <v>0.004489460322018441</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03899707691314373</v>
+        <v>0.0367153923098307</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1633,19 +1633,19 @@
         <v>6131</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2052</v>
+        <v>2201</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13426</v>
+        <v>13534</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02952316745458518</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009882389571136319</v>
+        <v>0.01059857394756878</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0646505034619316</v>
+        <v>0.06517357144829361</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -1654,19 +1654,19 @@
         <v>8936</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17451</v>
+        <v>18030</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02174358353088493</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0114353437082357</v>
+        <v>0.01167965452092348</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04246299627833971</v>
+        <v>0.04387038651027855</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>200503</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>195380</v>
+        <v>195843</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>202399</v>
+        <v>202395</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9862028340658114</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9610029230868549</v>
+        <v>0.9632846076901693</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9955283810925427</v>
+        <v>0.9955105396779815</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>192</v>
@@ -1704,19 +1704,19 @@
         <v>201537</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>194242</v>
+        <v>194134</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>205616</v>
+        <v>205467</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9704768325454148</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.935349496538068</v>
+        <v>0.9348264285517064</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9901176104288637</v>
+        <v>0.9894014260524312</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>395</v>
@@ -1725,19 +1725,19 @@
         <v>402040</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>393525</v>
+        <v>392946</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>406276</v>
+        <v>406176</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9782564164691151</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9575370037216603</v>
+        <v>0.9561296134897216</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9885646562917645</v>
+        <v>0.9883203454790765</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>9336</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4583</v>
+        <v>4523</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18858</v>
+        <v>17829</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03447321251524626</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0169228936438571</v>
+        <v>0.01670281196247447</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06963629049020539</v>
+        <v>0.06583398428605319</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -1850,19 +1850,19 @@
         <v>16977</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9919</v>
+        <v>10674</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25977</v>
+        <v>26384</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06103755355782463</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03566076501990803</v>
+        <v>0.03837428267902079</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09339319506134409</v>
+        <v>0.09485869287347924</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -1871,19 +1871,19 @@
         <v>26313</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17583</v>
+        <v>18266</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>37393</v>
+        <v>38460</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0479328076025337</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03203005766985255</v>
+        <v>0.03327366244363174</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06811612587192475</v>
+        <v>0.07006042332509189</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>261475</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>251953</v>
+        <v>252982</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>266228</v>
+        <v>266288</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9655267874847537</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9303637095097951</v>
+        <v>0.9341660157139469</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9830771063561429</v>
+        <v>0.9832971880375256</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>253</v>
@@ -1921,19 +1921,19 @@
         <v>261167</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>252167</v>
+        <v>251760</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>268225</v>
+        <v>267470</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9389624464421754</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9066068049386559</v>
+        <v>0.9051413071265207</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9643392349800919</v>
+        <v>0.9616257173209792</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>510</v>
@@ -1942,19 +1942,19 @@
         <v>522642</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>511562</v>
+        <v>510495</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>531372</v>
+        <v>530689</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9520671923974663</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9318838741280753</v>
+        <v>0.9299395766749081</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9679699423301475</v>
+        <v>0.9667263375563683</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>10975</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5641</v>
+        <v>5512</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19603</v>
+        <v>18979</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01784510289919784</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009172327753562323</v>
+        <v>0.008961865108155076</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03187410025070937</v>
+        <v>0.03085816720437817</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -2067,19 +2067,19 @@
         <v>24970</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>16334</v>
+        <v>15695</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35378</v>
+        <v>36018</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03912522720143016</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02559370212352291</v>
+        <v>0.02459169611207572</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05543261125275421</v>
+        <v>0.05643513207083031</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -2088,19 +2088,19 @@
         <v>35946</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>25555</v>
+        <v>25314</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48908</v>
+        <v>48890</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02868206548300235</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02039111687872024</v>
+        <v>0.02019840412975505</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03902486453657815</v>
+        <v>0.03901078938231698</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>604052</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>595424</v>
+        <v>596048</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>609386</v>
+        <v>609515</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9821548971008022</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9681258997492908</v>
+        <v>0.9691418327956219</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9908276722464378</v>
+        <v>0.9910381348918449</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>597</v>
@@ -2138,19 +2138,19 @@
         <v>613249</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>602841</v>
+        <v>602201</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>621885</v>
+        <v>622524</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9608747727985698</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9445673887472459</v>
+        <v>0.9435648679291697</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9744062978764771</v>
+        <v>0.9754083038879243</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1184</v>
@@ -2159,19 +2159,19 @@
         <v>1217300</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1204338</v>
+        <v>1204356</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1227691</v>
+        <v>1227932</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9713179345169977</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9609751354634221</v>
+        <v>0.9609892106176832</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9796088831212799</v>
+        <v>0.9798015958702452</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>29515</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19964</v>
+        <v>19895</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>40680</v>
+        <v>40047</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03968130379554518</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02684074898249229</v>
+        <v>0.02674798300253419</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05469266825787895</v>
+        <v>0.05384132945463939</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>58</v>
@@ -2284,19 +2284,19 @@
         <v>60636</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>47012</v>
+        <v>47491</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>77998</v>
+        <v>76480</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07739066079218504</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06000135183481227</v>
+        <v>0.06061242988458531</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09954982676427908</v>
+        <v>0.09761211838528711</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>88</v>
@@ -2305,19 +2305,19 @@
         <v>90151</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>73042</v>
+        <v>72189</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>108741</v>
+        <v>110413</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05902627801816942</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0478238516898392</v>
+        <v>0.04726589873918741</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07119813430459865</v>
+        <v>0.0722923648171629</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>714280</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>703115</v>
+        <v>703748</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>723831</v>
+        <v>723900</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9603186962044549</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.945307331742121</v>
+        <v>0.9461586705453606</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9731592510175077</v>
+        <v>0.9732520169974658</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>687</v>
@@ -2355,19 +2355,19 @@
         <v>722875</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>705513</v>
+        <v>707031</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>736499</v>
+        <v>736020</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.922609339207815</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.900450173235721</v>
+        <v>0.902387881614713</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9399986481651877</v>
+        <v>0.9393875701154147</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1393</v>
@@ -2376,19 +2376,19 @@
         <v>1437155</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1418565</v>
+        <v>1416893</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1454264</v>
+        <v>1455117</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9409737219818306</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9288018656954014</v>
+        <v>0.9277076351828371</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9521761483101608</v>
+        <v>0.9527341012608126</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>78472</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>61911</v>
+        <v>62415</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>97096</v>
+        <v>98123</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02394951982963</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01889535268700726</v>
+        <v>0.01904894691259707</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02963372077437028</v>
+        <v>0.0299471403282682</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>189</v>
@@ -2501,19 +2501,19 @@
         <v>194900</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>167998</v>
+        <v>171204</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>223458</v>
+        <v>224752</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05767647018032619</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04971533148514866</v>
+        <v>0.05066411401024312</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06612740437595363</v>
+        <v>0.06651057253294593</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>267</v>
@@ -2522,19 +2522,19 @@
         <v>273372</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>241942</v>
+        <v>242374</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>304930</v>
+        <v>306153</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04107308671545017</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03635089581225948</v>
+        <v>0.03641570638536167</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04581452737283314</v>
+        <v>0.04599832066221192</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3198071</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3179447</v>
+        <v>3178420</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3214632</v>
+        <v>3214128</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.97605048017037</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9703662792256297</v>
+        <v>0.9700528596717318</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9811046473129927</v>
+        <v>0.9809510530874029</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3108</v>
@@ -2572,19 +2572,19 @@
         <v>3184297</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3155739</v>
+        <v>3154445</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3211199</v>
+        <v>3207993</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9423235298196738</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9338725956240463</v>
+        <v>0.9334894274670542</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9502846685148514</v>
+        <v>0.9493358859897569</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6244</v>
@@ -2593,19 +2593,19 @@
         <v>6382369</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6350811</v>
+        <v>6349588</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6413799</v>
+        <v>6413367</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9589269132845498</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9541854726271671</v>
+        <v>0.9540016793377873</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9636491041877405</v>
+        <v>0.9635842936146383</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>4880</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1787</v>
+        <v>1765</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11370</v>
+        <v>10791</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01655785786187738</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00606189653360466</v>
+        <v>0.005988844293733649</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0385777221931692</v>
+        <v>0.03661286439467264</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -2962,19 +2962,19 @@
         <v>23559</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14362</v>
+        <v>14895</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34565</v>
+        <v>35574</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08201734703818342</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04999908986132761</v>
+        <v>0.05185612240447396</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1203322617132209</v>
+        <v>0.1238466971483321</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -2983,19 +2983,19 @@
         <v>28439</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19293</v>
+        <v>18435</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41066</v>
+        <v>41173</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04886620704748473</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03315082660482976</v>
+        <v>0.03167627768985178</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07056148077210836</v>
+        <v>0.07074558691113823</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>289858</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>283368</v>
+        <v>283947</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292951</v>
+        <v>292973</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9834421421381226</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9614222778068308</v>
+        <v>0.9633871356053272</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9939381034663953</v>
+        <v>0.9940111557062664</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>235</v>
@@ -3033,19 +3033,19 @@
         <v>263686</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>252680</v>
+        <v>251671</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>272883</v>
+        <v>272350</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9179826529618166</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.879667738286779</v>
+        <v>0.8761533028516679</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9500009101386724</v>
+        <v>0.948143877595526</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>512</v>
@@ -3054,19 +3054,19 @@
         <v>553544</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>540917</v>
+        <v>540810</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>562690</v>
+        <v>563548</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9511337929525152</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9294385192278917</v>
+        <v>0.929254413088862</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9668491733951703</v>
+        <v>0.9683237223101483</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>4961</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1923</v>
+        <v>1029</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13658</v>
+        <v>12867</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009814460671230863</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003804897763134622</v>
+        <v>0.00203526984431128</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02701692730151484</v>
+        <v>0.02545304453195479</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -3179,19 +3179,19 @@
         <v>24853</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16382</v>
+        <v>15628</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36596</v>
+        <v>36680</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04745104731312731</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03127725491405024</v>
+        <v>0.02983725436264807</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0698709441609732</v>
+        <v>0.07003225476025284</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -3200,19 +3200,19 @@
         <v>29815</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20074</v>
+        <v>20373</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42415</v>
+        <v>44254</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02896619017305339</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01950306113696805</v>
+        <v>0.01979346918863176</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04120809752507826</v>
+        <v>0.04299484402057602</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>500566</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>491869</v>
+        <v>492660</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>503604</v>
+        <v>504498</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9901855393287692</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9729830726984852</v>
+        <v>0.9745469554680453</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9961951022368654</v>
+        <v>0.9979647301556888</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>457</v>
@@ -3250,19 +3250,19 @@
         <v>498912</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>487169</v>
+        <v>487085</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>507383</v>
+        <v>508137</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9525489526868727</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9301290558390265</v>
+        <v>0.9299677452397471</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9687227450859497</v>
+        <v>0.9701627456373517</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>925</v>
@@ -3271,19 +3271,19 @@
         <v>999477</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>986877</v>
+        <v>985038</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1009218</v>
+        <v>1008919</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9710338098269466</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9587919024749217</v>
+        <v>0.9570051559794239</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9804969388630319</v>
+        <v>0.9802065308113681</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>4725</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1860</v>
+        <v>1868</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9598</v>
+        <v>10439</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01458059326711994</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005740563825094074</v>
+        <v>0.005765018392607311</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02961778844614756</v>
+        <v>0.0322148512809915</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -3396,19 +3396,19 @@
         <v>13948</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7439</v>
+        <v>7948</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22393</v>
+        <v>23112</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04089937982429256</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02181278544425054</v>
+        <v>0.02330734237639708</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06566552864915845</v>
+        <v>0.06777447289979484</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -3417,19 +3417,19 @@
         <v>18672</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11327</v>
+        <v>11309</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28854</v>
+        <v>28055</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02807584439386785</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01703189670288495</v>
+        <v>0.01700411872720627</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04338517130630518</v>
+        <v>0.04218441951731888</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>319321</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>314448</v>
+        <v>313607</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>322186</v>
+        <v>322178</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9854194067328801</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9703822115538524</v>
+        <v>0.9677851487190086</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.994259436174906</v>
+        <v>0.9942349816073927</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>304</v>
@@ -3467,19 +3467,19 @@
         <v>327072</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>318627</v>
+        <v>317908</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>333581</v>
+        <v>333072</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9591006201757074</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9343344713508412</v>
+        <v>0.932225527100205</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9781872145557494</v>
+        <v>0.9766926576236028</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>618</v>
@@ -3488,19 +3488,19 @@
         <v>646394</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>636212</v>
+        <v>637011</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>653739</v>
+        <v>653757</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9719241556061321</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.956614828693695</v>
+        <v>0.9578155804826815</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.982968103297115</v>
+        <v>0.9829958812727938</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>6195</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2300</v>
+        <v>2274</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13301</v>
+        <v>13071</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01656548835313006</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006149450148121081</v>
+        <v>0.006080018879858678</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03556555136207841</v>
+        <v>0.03495048722360528</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -3613,19 +3613,19 @@
         <v>35344</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24807</v>
+        <v>24113</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48816</v>
+        <v>46619</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0908695259595496</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06377881739687395</v>
+        <v>0.06199472261662999</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1255061856339246</v>
+        <v>0.1198579652588974</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -3634,19 +3634,19 @@
         <v>41539</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30930</v>
+        <v>29003</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>57628</v>
+        <v>54141</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05444643625779925</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04054095164892701</v>
+        <v>0.03801510032838368</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07553426008151073</v>
+        <v>0.07096402727144126</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>367787</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>360681</v>
+        <v>360911</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>371682</v>
+        <v>371708</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9834345116468699</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9644344486379216</v>
+        <v>0.9650495127763938</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9938505498518789</v>
+        <v>0.9939199811201413</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>338</v>
@@ -3684,19 +3684,19 @@
         <v>353607</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>340135</v>
+        <v>342332</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>364144</v>
+        <v>364838</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9091304740404504</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8744938143660754</v>
+        <v>0.8801420347411025</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9362211826031263</v>
+        <v>0.9380052773833698</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>676</v>
@@ -3705,19 +3705,19 @@
         <v>721394</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>705305</v>
+        <v>708792</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>732003</v>
+        <v>733930</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9455535637422008</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9244657399184897</v>
+        <v>0.9290359727285584</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9594590483510732</v>
+        <v>0.9619848996716163</v>
       </c>
     </row>
     <row r="15">
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7880</v>
+        <v>7907</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01036336962865534</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03706319121071621</v>
+        <v>0.0371885803656016</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -3830,19 +3830,19 @@
         <v>22282</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14536</v>
+        <v>14893</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31948</v>
+        <v>32501</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1014703476182972</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06619652231926777</v>
+        <v>0.06782300115326055</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1454889743453808</v>
+        <v>0.1480084516947346</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -3851,19 +3851,19 @@
         <v>24485</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16104</v>
+        <v>16350</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35605</v>
+        <v>34713</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05665178699512795</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0372591905028949</v>
+        <v>0.03782913340740775</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0823787142525596</v>
+        <v>0.08031597004023359</v>
       </c>
     </row>
     <row r="17">
@@ -3880,7 +3880,7 @@
         <v>210415</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>204738</v>
+        <v>204711</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>212618</v>
@@ -3889,7 +3889,7 @@
         <v>0.9896366303713446</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9629368087892838</v>
+        <v>0.9628114196343984</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3901,19 +3901,19 @@
         <v>197309</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>187643</v>
+        <v>187090</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>205055</v>
+        <v>204698</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8985296523817028</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.854511025654619</v>
+        <v>0.8519915483052654</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9338034776807321</v>
+        <v>0.9321769988467397</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>384</v>
@@ -3922,19 +3922,19 @@
         <v>407724</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>396604</v>
+        <v>397496</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>416105</v>
+        <v>415859</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.943348213004872</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9176212857474405</v>
+        <v>0.9196840299597665</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9627408094971052</v>
+        <v>0.9621708665925922</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>5112</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1891</v>
+        <v>1854</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11993</v>
+        <v>11180</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01865773365485541</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006900405325182819</v>
+        <v>0.006767823929998005</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04377423307442078</v>
+        <v>0.04080593072300914</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -4047,19 +4047,19 @@
         <v>13008</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6984</v>
+        <v>7923</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21703</v>
+        <v>21474</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04677536405596393</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02511478016718535</v>
+        <v>0.02849117295703369</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07804195249965191</v>
+        <v>0.07721758666324419</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -4068,19 +4068,19 @@
         <v>18120</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10770</v>
+        <v>11453</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28116</v>
+        <v>27913</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03282133220016183</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01950848376915444</v>
+        <v>0.02074571510235207</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05092776811275325</v>
+        <v>0.05056007006206666</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>268869</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>261988</v>
+        <v>262801</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>272090</v>
+        <v>272127</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9813422663451445</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9562257669255798</v>
+        <v>0.9591940692769909</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9930995946748171</v>
+        <v>0.993232176070002</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>255</v>
@@ -4118,19 +4118,19 @@
         <v>265088</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>256393</v>
+        <v>256622</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>271112</v>
+        <v>270173</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9532246359440361</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9219580475003489</v>
+        <v>0.9227824133367558</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9748852198328146</v>
+        <v>0.9715088270429664</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>511</v>
@@ -4139,19 +4139,19 @@
         <v>533957</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>523961</v>
+        <v>524164</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>541307</v>
+        <v>540624</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9671786677998382</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9490722318872467</v>
+        <v>0.949439929937933</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9804915162308455</v>
+        <v>0.9792542848976479</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>9213</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4228</v>
+        <v>4242</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16382</v>
+        <v>16409</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01390110461844353</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006379154038265577</v>
+        <v>0.006400597376033616</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02471613923472626</v>
+        <v>0.02475726766374003</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -4264,19 +4264,19 @@
         <v>30706</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20669</v>
+        <v>20701</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>43207</v>
+        <v>43649</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04425431000889551</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02978825367070713</v>
+        <v>0.02983458719466139</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06227141594912635</v>
+        <v>0.06290789004909442</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>37</v>
@@ -4285,19 +4285,19 @@
         <v>39919</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>29021</v>
+        <v>29007</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>55518</v>
+        <v>56419</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02942522748979287</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0213919747188714</v>
+        <v>0.02138113765700298</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04092308353628672</v>
+        <v>0.04158745133194486</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>653575</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>646406</v>
+        <v>646379</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>658560</v>
+        <v>658546</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9860988953815565</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9752838607652737</v>
+        <v>0.9752427323362601</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9936208459617344</v>
+        <v>0.9935994026239665</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>608</v>
@@ -4335,19 +4335,19 @@
         <v>663147</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>650646</v>
+        <v>650204</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>673184</v>
+        <v>673152</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9557456899911044</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9377285840508737</v>
+        <v>0.9370921099509055</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9702117463292929</v>
+        <v>0.9701654128053386</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1217</v>
@@ -4356,19 +4356,19 @@
         <v>1316722</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1301123</v>
+        <v>1300222</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1327620</v>
+        <v>1327634</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9705747725102071</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9590769164637133</v>
+        <v>0.9584125486680551</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9786080252811287</v>
+        <v>0.978618862342997</v>
       </c>
     </row>
     <row r="24">
@@ -4463,16 +4463,16 @@
         <v>1022</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9229</v>
+        <v>9139</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005135624896354603</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001313144652157934</v>
+        <v>0.001313529665822268</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01186143613924658</v>
+        <v>0.01174523020790188</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -4481,19 +4481,19 @@
         <v>26057</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17414</v>
+        <v>18067</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38145</v>
+        <v>38251</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03167729036062866</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02116998524334623</v>
+        <v>0.02196413345388382</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04637248353035865</v>
+        <v>0.04650111733663825</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>28</v>
@@ -4502,19 +4502,19 @@
         <v>30053</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>21018</v>
+        <v>20259</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>43069</v>
+        <v>43229</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01877548421692157</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01313081884819315</v>
+        <v>0.01265686846089102</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02690734124402568</v>
+        <v>0.02700705292534281</v>
       </c>
     </row>
     <row r="26">
@@ -4531,7 +4531,7 @@
         <v>774072</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>768839</v>
+        <v>768929</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>777046</v>
@@ -4540,10 +4540,10 @@
         <v>0.9948643751036454</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9881385638607535</v>
+        <v>0.9882547697920981</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9986868553478421</v>
+        <v>0.9986864703341778</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>732</v>
@@ -4552,19 +4552,19 @@
         <v>796521</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>784433</v>
+        <v>784327</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>805164</v>
+        <v>804511</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9683227096393713</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9536275164696412</v>
+        <v>0.9534988826633611</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9788300147566538</v>
+        <v>0.9780358665461162</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1444</v>
@@ -4573,19 +4573,19 @@
         <v>1570593</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1557577</v>
+        <v>1557417</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1579628</v>
+        <v>1580387</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9812245157830785</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9730926587559745</v>
+        <v>0.9729929470746576</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9868691811518069</v>
+        <v>0.987343131539109</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>41286</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29778</v>
+        <v>29833</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>54787</v>
+        <v>56874</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01205177300091798</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008692509128400736</v>
+        <v>0.008708487229741897</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01599258400972419</v>
+        <v>0.01660179312838948</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>177</v>
@@ -4698,19 +4698,19 @@
         <v>189757</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>164997</v>
+        <v>162675</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>219843</v>
+        <v>217980</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05337590461030467</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04641144903311164</v>
+        <v>0.04575819345754485</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06183879413671193</v>
+        <v>0.06131481386291485</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>217</v>
@@ -4719,19 +4719,19 @@
         <v>231043</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>200104</v>
+        <v>204063</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>261507</v>
+        <v>262326</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03309669164588029</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02866467287516117</v>
+        <v>0.02923184381377163</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03746070802084724</v>
+        <v>0.03757794096337243</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3384462</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3370961</v>
+        <v>3368874</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3395970</v>
+        <v>3395915</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.987948226999082</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9840074159902755</v>
+        <v>0.9833982068716109</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9913074908715993</v>
+        <v>0.9912915127702584</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3119</v>
@@ -4769,19 +4769,19 @@
         <v>3365341</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3335255</v>
+        <v>3337118</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3390101</v>
+        <v>3392423</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9466240953896954</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.938161205863288</v>
+        <v>0.9386851861370852</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9535885509668883</v>
+        <v>0.9542418065424552</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6287</v>
@@ -4790,19 +4790,19 @@
         <v>6749804</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6719340</v>
+        <v>6718521</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6780743</v>
+        <v>6776784</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9669033083541198</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9625392919791534</v>
+        <v>0.9624220590366276</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9713353271248389</v>
+        <v>0.9707681561862284</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>3201</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8941</v>
+        <v>8703</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0108966406228171</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003300862689529399</v>
+        <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0304378700759777</v>
+        <v>0.02962453704558322</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -5159,19 +5159,19 @@
         <v>26046</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16716</v>
+        <v>15959</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37784</v>
+        <v>36234</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09021655486455804</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05789879412865695</v>
+        <v>0.0552778530095753</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1308753617284144</v>
+        <v>0.1255067038031613</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -5180,19 +5180,19 @@
         <v>29247</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19557</v>
+        <v>19406</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42346</v>
+        <v>42221</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05021219860226173</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03357708389865161</v>
+        <v>0.03331643936854523</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07270087995298191</v>
+        <v>0.07248618710537051</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>290560</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>284820</v>
+        <v>285058</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292791</v>
+        <v>293761</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9891033593771829</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.969562129924022</v>
+        <v>0.9703754629544167</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9966991373104706</v>
+        <v>1</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>253</v>
@@ -5230,19 +5230,19 @@
         <v>262657</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>250919</v>
+        <v>252469</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>271987</v>
+        <v>272744</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.909783445135442</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8691246382715858</v>
+        <v>0.8744932961968386</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9421012058713431</v>
+        <v>0.9447221469904247</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>516</v>
@@ -5251,19 +5251,19 @@
         <v>553217</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>540118</v>
+        <v>540243</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>562907</v>
+        <v>563058</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9497878013977382</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9272991200470178</v>
+        <v>0.9275138128946292</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9664229161013482</v>
+        <v>0.9666835606314547</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>2901</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8566</v>
+        <v>7996</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005773142733521924</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001723272953820468</v>
+        <v>0.001713723865083528</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01704487279348001</v>
+        <v>0.01591054699820217</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -5376,19 +5376,19 @@
         <v>17876</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10735</v>
+        <v>10357</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27551</v>
+        <v>27194</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03417470250027263</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02052188600598175</v>
+        <v>0.01979964503018105</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05267075687621988</v>
+        <v>0.05198850643536324</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -5397,19 +5397,19 @@
         <v>20778</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13038</v>
+        <v>12447</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31119</v>
+        <v>30456</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02025787523449811</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01271139056257012</v>
+        <v>0.01213531707511146</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03034082661237596</v>
+        <v>0.02969443555474759</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>499674</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>494009</v>
+        <v>494579</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>501709</v>
+        <v>501714</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9942268572664781</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9829551272065193</v>
+        <v>0.9840894530017977</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9982767270461795</v>
+        <v>0.9982862761349165</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>467</v>
@@ -5447,19 +5447,19 @@
         <v>505208</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>495533</v>
+        <v>495890</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>512349</v>
+        <v>512727</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9658252974997273</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9473292431237801</v>
+        <v>0.9480114935646367</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9794781139940181</v>
+        <v>0.9802003549698189</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>939</v>
@@ -5468,19 +5468,19 @@
         <v>1004881</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>994540</v>
+        <v>995203</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1012621</v>
+        <v>1013212</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9797421247655019</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9696591733876238</v>
+        <v>0.9703055644452522</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9872886094374297</v>
+        <v>0.9878646829248884</v>
       </c>
     </row>
     <row r="9">
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4684</v>
+        <v>5069</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002933545469683004</v>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01470231092090077</v>
+        <v>0.01591261782243731</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -5593,19 +5593,19 @@
         <v>12704</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6674</v>
+        <v>6756</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21664</v>
+        <v>22363</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0377740845952973</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01984337545589219</v>
+        <v>0.02008779086380298</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06441796325246403</v>
+        <v>0.06649584524240607</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -5614,19 +5614,19 @@
         <v>13638</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7508</v>
+        <v>8045</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23938</v>
+        <v>24552</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0208258223802424</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01146472208142315</v>
+        <v>0.01228530104804806</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03655328605610729</v>
+        <v>0.0374905204165616</v>
       </c>
     </row>
     <row r="11">
@@ -5643,7 +5643,7 @@
         <v>317630</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>313881</v>
+        <v>313496</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>318565</v>
@@ -5652,7 +5652,7 @@
         <v>0.9970664545303169</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9852976890790993</v>
+        <v>0.9840873821775619</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5664,19 +5664,19 @@
         <v>323605</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>314645</v>
+        <v>313946</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>329635</v>
+        <v>329553</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9622259154047027</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.935582036747536</v>
+        <v>0.9335041547575951</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9801566245441083</v>
+        <v>0.9799122091361973</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>654</v>
@@ -5685,19 +5685,19 @@
         <v>641236</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>630936</v>
+        <v>630322</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>647366</v>
+        <v>646829</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9791741776197576</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.963446713943893</v>
+        <v>0.9625094795834384</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9885352779185769</v>
+        <v>0.9877146989519519</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>6990</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3003</v>
+        <v>2982</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13451</v>
+        <v>13427</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01889334564810927</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008116944856091849</v>
+        <v>0.008060976795710202</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03635850459291219</v>
+        <v>0.03629234483878743</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -5810,19 +5810,19 @@
         <v>29300</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19609</v>
+        <v>19034</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42058</v>
+        <v>43195</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07565617270286792</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05063101022779277</v>
+        <v>0.04914804865470831</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1085978073803782</v>
+        <v>0.1115331483997085</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>32</v>
@@ -5831,19 +5831,19 @@
         <v>36290</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24148</v>
+        <v>25179</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>50112</v>
+        <v>50264</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04792387072985355</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03188858048278043</v>
+        <v>0.03325042715242071</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06617648906822901</v>
+        <v>0.06637731595916885</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>362974</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>356513</v>
+        <v>356537</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>366961</v>
+        <v>366982</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9811066543518907</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.963641495407088</v>
+        <v>0.9637076551612123</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9918830551439082</v>
+        <v>0.9919390232042897</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>333</v>
@@ -5881,19 +5881,19 @@
         <v>357983</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>345225</v>
+        <v>344088</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>367674</v>
+        <v>368249</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.924343827297132</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8914021926196218</v>
+        <v>0.8884668516002917</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9493689897722072</v>
+        <v>0.9508519513452917</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>680</v>
@@ -5902,19 +5902,19 @@
         <v>720957</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>707135</v>
+        <v>706983</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>733099</v>
+        <v>732068</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9520761292701464</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9338235109317712</v>
+        <v>0.9336226840408313</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9681114195172197</v>
+        <v>0.9667495728475793</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>4751</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1811</v>
+        <v>1840</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10341</v>
+        <v>11356</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02249425971072826</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008574928273093682</v>
+        <v>0.008711243577169927</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04895600941866397</v>
+        <v>0.05376344319654468</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -6027,19 +6027,19 @@
         <v>19123</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11587</v>
+        <v>12297</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28515</v>
+        <v>28933</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08748566107192358</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05300643958323982</v>
+        <v>0.05625677662300257</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1304514274041588</v>
+        <v>0.1323646624114617</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -6048,19 +6048,19 @@
         <v>23874</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15522</v>
+        <v>15683</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34187</v>
+        <v>35483</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05554686810073407</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03611430252443265</v>
+        <v>0.03648770902862604</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07953924245622189</v>
+        <v>0.08255436475011803</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>206470</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>200880</v>
+        <v>199865</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>209410</v>
+        <v>209381</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9775057402892717</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9510439905813359</v>
+        <v>0.9462365568034548</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9914250717269063</v>
+        <v>0.9912887564228301</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>204</v>
@@ -6098,19 +6098,19 @@
         <v>199464</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>190072</v>
+        <v>189654</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>207000</v>
+        <v>206290</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9125143389280764</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8695485725958418</v>
+        <v>0.8676353375885392</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9469935604167605</v>
+        <v>0.9437432233769977</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>411</v>
@@ -6119,19 +6119,19 @@
         <v>405934</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>395621</v>
+        <v>394325</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>414286</v>
+        <v>414125</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9444531318992659</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9204607575437781</v>
+        <v>0.917445635249882</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9638856974755675</v>
+        <v>0.9635122909713741</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>5759</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1915</v>
+        <v>2090</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13558</v>
+        <v>12845</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02188523552279362</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00727754137072878</v>
+        <v>0.007943929019178888</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05152809188784163</v>
+        <v>0.0488179525667166</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -6244,19 +6244,19 @@
         <v>16225</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9531</v>
+        <v>9442</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24866</v>
+        <v>26076</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.059408115055786</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03489720622957967</v>
+        <v>0.03457054427213507</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09104426018238057</v>
+        <v>0.09547687466644948</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -6265,19 +6265,19 @@
         <v>21984</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13740</v>
+        <v>13446</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32557</v>
+        <v>32491</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04099626694414665</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02562320923820819</v>
+        <v>0.02507469851068927</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06071313256742985</v>
+        <v>0.06059089688330246</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>257364</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>249565</v>
+        <v>250278</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>261208</v>
+        <v>261033</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9781147644772064</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9484719081121583</v>
+        <v>0.9511820474332833</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9927224586292711</v>
+        <v>0.9920560709808212</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>248</v>
@@ -6315,19 +6315,19 @@
         <v>256890</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>248249</v>
+        <v>247039</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>263584</v>
+        <v>263673</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.940591884944214</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9089557398176195</v>
+        <v>0.9045231253335505</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9651027937704203</v>
+        <v>0.9654294557278649</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>502</v>
@@ -6336,19 +6336,19 @@
         <v>514254</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>503681</v>
+        <v>503747</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>522498</v>
+        <v>522792</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9590037330558533</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9392868674325707</v>
+        <v>0.9394091031166976</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9743767907617924</v>
+        <v>0.9749253014893108</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>14569</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8410</v>
+        <v>7648</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24708</v>
+        <v>25255</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02219061291512178</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01280968272493652</v>
+        <v>0.01164937928448017</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03763228522530473</v>
+        <v>0.03846595963586364</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -6461,19 +6461,19 @@
         <v>40156</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28797</v>
+        <v>28540</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>55023</v>
+        <v>54440</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05808768348144543</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04165715863787321</v>
+        <v>0.0412844599663774</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0795939308794022</v>
+        <v>0.07875060921966734</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>50</v>
@@ -6482,19 +6482,19 @@
         <v>54725</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>41172</v>
+        <v>41298</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>72280</v>
+        <v>71585</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04060170668670366</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03054674549774208</v>
+        <v>0.03063955473523677</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05362593207394981</v>
+        <v>0.0531103022528878</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>641989</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>631850</v>
+        <v>631303</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>648148</v>
+        <v>648910</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9778093870848782</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9623677147746954</v>
+        <v>0.9615340403641358</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9871903172750636</v>
+        <v>0.9883506207155198</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>609</v>
@@ -6532,19 +6532,19 @@
         <v>651138</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>636271</v>
+        <v>636854</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>662497</v>
+        <v>662754</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9419123165185546</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9204060691205977</v>
+        <v>0.9212493907803326</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9583428413621268</v>
+        <v>0.9587155400336226</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1176</v>
@@ -6553,19 +6553,19 @@
         <v>1293127</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1275572</v>
+        <v>1276267</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1306680</v>
+        <v>1306554</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9593982933132963</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9463740679260511</v>
+        <v>0.9468896977471122</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9694532545022581</v>
+        <v>0.9693604452647633</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>8769</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4037</v>
+        <v>4179</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15811</v>
+        <v>16314</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01126309499214877</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005184576968754273</v>
+        <v>0.005366928796290252</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02030722539127197</v>
+        <v>0.02095346867790173</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -6678,19 +6678,19 @@
         <v>33268</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23177</v>
+        <v>23235</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>46176</v>
+        <v>47711</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04026846208225635</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02805387037144587</v>
+        <v>0.02812422652773909</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05589214986752154</v>
+        <v>0.05774924058887596</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>38</v>
@@ -6699,19 +6699,19 @@
         <v>42038</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30359</v>
+        <v>29220</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>55273</v>
+        <v>56704</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02619581173224341</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01891830316809092</v>
+        <v>0.01820829989026454</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0344436330473124</v>
+        <v>0.03533509848877154</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>769814</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>762772</v>
+        <v>762269</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>774546</v>
+        <v>774404</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9887369050078513</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9796927746087268</v>
+        <v>0.9790465313220983</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9948154230312454</v>
+        <v>0.99463307120371</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>726</v>
@@ -6749,19 +6749,19 @@
         <v>792899</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>779991</v>
+        <v>778456</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>802990</v>
+        <v>802932</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9597315379177437</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9441078501324784</v>
+        <v>0.9422507594111235</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9719461296285543</v>
+        <v>0.9718757734722607</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1467</v>
@@ -6770,19 +6770,19 @@
         <v>1562712</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1549477</v>
+        <v>1548046</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1574391</v>
+        <v>1575530</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9738041882677566</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9655563669526875</v>
+        <v>0.9646649015112285</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9810816968319094</v>
+        <v>0.9817917001097355</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>47875</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>36431</v>
+        <v>34793</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>64970</v>
+        <v>63515</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01410440066938834</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01073295889843619</v>
+        <v>0.01025038830810581</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01914065159788012</v>
+        <v>0.01871196765547217</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>178</v>
@@ -6895,19 +6895,19 @@
         <v>194699</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>167913</v>
+        <v>169647</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>225019</v>
+        <v>224168</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05492917315418368</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04737230835116891</v>
+        <v>0.047861442112493</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06348332413933093</v>
+        <v>0.0632430416923314</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>224</v>
@@ -6916,19 +6916,19 @@
         <v>242574</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>211947</v>
+        <v>214139</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>276530</v>
+        <v>278268</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03495861104430423</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03054471936183459</v>
+        <v>0.03086069574819027</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03985214285191605</v>
+        <v>0.04010267353608451</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3346475</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3329380</v>
+        <v>3330835</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3357919</v>
+        <v>3359557</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9858955993306117</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9808593484021197</v>
+        <v>0.9812880323445271</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9892670411015635</v>
+        <v>0.989749611691894</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3160</v>
@@ -6966,19 +6966,19 @@
         <v>3349843</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3319523</v>
+        <v>3320374</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3376629</v>
+        <v>3374895</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9450708268458163</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9365166758606689</v>
+        <v>0.9367569583076685</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9526276916488309</v>
+        <v>0.9521385578875067</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6345</v>
@@ -6987,19 +6987,19 @@
         <v>6696318</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6662362</v>
+        <v>6660624</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6726945</v>
+        <v>6724753</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9650413889556958</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9601478571480839</v>
+        <v>0.9598973264639155</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9694552806381654</v>
+        <v>0.9691393042518098</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>10590</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5169</v>
+        <v>5224</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19028</v>
+        <v>19217</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0332138583361443</v>
+        <v>0.03321385833614431</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01621193484919593</v>
+        <v>0.01638435873617454</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0596769885520391</v>
+        <v>0.06027049547848415</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>62</v>
@@ -7356,19 +7356,19 @@
         <v>35588</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26887</v>
+        <v>27713</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46225</v>
+        <v>46973</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1125989737041564</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0850684746928949</v>
+        <v>0.08768214787261173</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1462539492159577</v>
+        <v>0.1486198363175069</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>72</v>
@@ -7377,19 +7377,19 @@
         <v>46178</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35879</v>
+        <v>36770</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58912</v>
+        <v>58094</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07273232816715178</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05651134836654872</v>
+        <v>0.05791428539965902</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09278905408046972</v>
+        <v>0.0915008452019368</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>308255</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>299817</v>
+        <v>299628</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>313676</v>
+        <v>313621</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9667861416638557</v>
+        <v>0.9667861416638559</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.940323011447961</v>
+        <v>0.9397295045215158</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9837880651508036</v>
+        <v>0.9836156412638255</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>476</v>
@@ -7427,19 +7427,19 @@
         <v>280473</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>269836</v>
+        <v>269088</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>289174</v>
+        <v>288348</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8874010262958437</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8537460507840423</v>
+        <v>0.851380163682493</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9149315253071051</v>
+        <v>0.9123178521273884</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>797</v>
@@ -7448,19 +7448,19 @@
         <v>588728</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>575994</v>
+        <v>576812</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>599027</v>
+        <v>598136</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9272676718328482</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9072109459195301</v>
+        <v>0.9084991547980632</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9434886516334511</v>
+        <v>0.9420857146003411</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>36041</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24060</v>
+        <v>24177</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51755</v>
+        <v>51507</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06804598675911992</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04542622412163523</v>
+        <v>0.04564678735239642</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09771289490566396</v>
+        <v>0.0972451590946098</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>95</v>
@@ -7573,19 +7573,19 @@
         <v>75963</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62443</v>
+        <v>62309</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>93100</v>
+        <v>92146</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1393594757299891</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1145563570222566</v>
+        <v>0.1143105858305891</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1707972657485148</v>
+        <v>0.1690483673312337</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>122</v>
@@ -7594,19 +7594,19 @@
         <v>112004</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>93116</v>
+        <v>94231</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>133186</v>
+        <v>135786</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.104214600577728</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08663958541890202</v>
+        <v>0.08767722739390206</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1239234037788714</v>
+        <v>0.126342199793297</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>493619</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>477905</v>
+        <v>478153</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>505600</v>
+        <v>505483</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9319540132408801</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9022871050943357</v>
+        <v>0.9027548409053904</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9545737758783649</v>
+        <v>0.9543532126476035</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>620</v>
@@ -7644,19 +7644,19 @@
         <v>469125</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>451988</v>
+        <v>452942</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>482645</v>
+        <v>482779</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.860640524270011</v>
+        <v>0.8606405242700109</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8292027342514851</v>
+        <v>0.830951632668766</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8854436429777431</v>
+        <v>0.8856894141694109</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>974</v>
@@ -7665,19 +7665,19 @@
         <v>962744</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>941562</v>
+        <v>938962</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>981632</v>
+        <v>980517</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8957853994222722</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8760765962211291</v>
+        <v>0.8736578002067029</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9133604145810981</v>
+        <v>0.9123227726060982</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>15073</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9019</v>
+        <v>9108</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22911</v>
+        <v>23434</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.04796332078319401</v>
+        <v>0.047963320783194</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02870095443301086</v>
+        <v>0.0289840400206216</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07290422992269703</v>
+        <v>0.07456901485194334</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>64</v>
@@ -7790,19 +7790,19 @@
         <v>44616</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35487</v>
+        <v>35149</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57421</v>
+        <v>56344</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.125193115531456</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09957676140528406</v>
+        <v>0.09862854630304864</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1611232715581319</v>
+        <v>0.1581005474901647</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>82</v>
@@ -7811,19 +7811,19 @@
         <v>59689</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48085</v>
+        <v>47278</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>73640</v>
+        <v>74188</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08900378526067516</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07170007971657825</v>
+        <v>0.07049757587086727</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1098065516247924</v>
+        <v>0.1106229100257091</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>299183</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>291345</v>
+        <v>290822</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>305237</v>
+        <v>305148</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.952036679216806</v>
+        <v>0.9520366792168059</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9270957700773031</v>
+        <v>0.9254309851480575</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9712990455669893</v>
+        <v>0.9710159599793786</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>472</v>
@@ -7861,19 +7861,19 @@
         <v>311765</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>298960</v>
+        <v>300037</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>320894</v>
+        <v>321232</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8748068844685439</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.838876728441868</v>
+        <v>0.8418994525098351</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.900423238594716</v>
+        <v>0.9013714536969512</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>813</v>
@@ -7882,19 +7882,19 @@
         <v>610948</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>596997</v>
+        <v>596449</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>622552</v>
+        <v>623359</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9109962147393249</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8901934483752075</v>
+        <v>0.8893770899742909</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9282999202834212</v>
+        <v>0.9295024241291328</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>7398</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3429</v>
+        <v>3320</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14800</v>
+        <v>15348</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01982520659681951</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009189279597875273</v>
+        <v>0.008896657473645047</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03966388397533575</v>
+        <v>0.041130462960287</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -8007,19 +8007,19 @@
         <v>28855</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21250</v>
+        <v>21497</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39189</v>
+        <v>38577</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06838284718182838</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05035955583228947</v>
+        <v>0.05094477097402802</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09287411669752557</v>
+        <v>0.09142242862573431</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>56</v>
@@ -8028,19 +8028,19 @@
         <v>36253</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27536</v>
+        <v>27216</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47285</v>
+        <v>47351</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04559464367037197</v>
+        <v>0.04559464367037196</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03463161650736946</v>
+        <v>0.03422943851879157</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05946960565506747</v>
+        <v>0.05955299180836141</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>365747</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>358345</v>
+        <v>357797</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>369716</v>
+        <v>369825</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9801747934031806</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9603361160246643</v>
+        <v>0.9588695370397124</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9908107204021247</v>
+        <v>0.9911033425263549</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>552</v>
@@ -8078,19 +8078,19 @@
         <v>393106</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>382772</v>
+        <v>383384</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>400711</v>
+        <v>400464</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9316171528181716</v>
+        <v>0.9316171528181718</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9071258833024745</v>
+        <v>0.908577571374266</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9496404441677101</v>
+        <v>0.9490552290259721</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>835</v>
@@ -8099,19 +8099,19 @@
         <v>758854</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>747822</v>
+        <v>747756</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>767571</v>
+        <v>767891</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.954405356329628</v>
+        <v>0.9544053563296278</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9405303943449325</v>
+        <v>0.9404470081916385</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9653683834926304</v>
+        <v>0.9657705614812084</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>10312</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5957</v>
+        <v>5586</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16985</v>
+        <v>16600</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05013982312673449</v>
+        <v>0.0501398231267345</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02896541805755568</v>
+        <v>0.02715947343075302</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08258536435035485</v>
+        <v>0.08071243403471393</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>57</v>
@@ -8224,19 +8224,19 @@
         <v>26163</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20350</v>
+        <v>19693</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33349</v>
+        <v>33022</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1153434545463522</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08971748511896267</v>
+        <v>0.08682151738490219</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1470257560439849</v>
+        <v>0.1455856861974995</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>71</v>
@@ -8245,19 +8245,19 @@
         <v>36475</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28696</v>
+        <v>28488</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46766</v>
+        <v>46636</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08433661677464258</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06635112587812156</v>
+        <v>0.06586932088804962</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1081314830025723</v>
+        <v>0.1078322810716619</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>195353</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>188680</v>
+        <v>189065</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>199708</v>
+        <v>200079</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9498601768732654</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9174146356496452</v>
+        <v>0.919287565965286</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9710345819424443</v>
+        <v>0.972840526569247</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>434</v>
@@ -8295,19 +8295,19 @@
         <v>200660</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>193474</v>
+        <v>193801</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>206473</v>
+        <v>207130</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.884656545453648</v>
+        <v>0.8846565454536476</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.852974243956015</v>
+        <v>0.8544143138025005</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9102825148810373</v>
+        <v>0.9131784826150979</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>699</v>
@@ -8316,19 +8316,19 @@
         <v>396013</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>385722</v>
+        <v>385852</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>403792</v>
+        <v>404000</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9156633832253572</v>
+        <v>0.9156633832253575</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8918685169974275</v>
+        <v>0.8921677189283381</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9336488741218784</v>
+        <v>0.9341306791119504</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>16958</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11618</v>
+        <v>11414</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25680</v>
+        <v>24786</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.06264323161104167</v>
+        <v>0.06264323161104166</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04291864983180426</v>
+        <v>0.04216351952915126</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09486285785813507</v>
+        <v>0.09155843435125689</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>70</v>
@@ -8441,19 +8441,19 @@
         <v>38641</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30583</v>
+        <v>30474</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49957</v>
+        <v>49029</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1468674137891511</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1162407268245634</v>
+        <v>0.1158257111324112</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1898803632285547</v>
+        <v>0.1863517667546334</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>96</v>
@@ -8462,19 +8462,19 @@
         <v>55599</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>44773</v>
+        <v>44503</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>68599</v>
+        <v>67624</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.104155143962151</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0838742947288955</v>
+        <v>0.08336909069297911</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1285083427167601</v>
+        <v>0.126683559805759</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>253749</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>245027</v>
+        <v>245921</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>259089</v>
+        <v>259293</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9373567683889583</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.905137142141865</v>
+        <v>0.9084415656487431</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9570813501681958</v>
+        <v>0.9578364804708488</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>389</v>
@@ -8512,19 +8512,19 @@
         <v>224458</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>213142</v>
+        <v>214070</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>232516</v>
+        <v>232625</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8531325862108488</v>
+        <v>0.8531325862108489</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8101196367714453</v>
+        <v>0.8136482332453665</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8837592731754367</v>
+        <v>0.8841742888675891</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>734</v>
@@ -8533,19 +8533,19 @@
         <v>478207</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>465207</v>
+        <v>466182</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>489033</v>
+        <v>489303</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.895844856037849</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8714916572832399</v>
+        <v>0.873316440194241</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9161257052711043</v>
+        <v>0.916630909307021</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>52984</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37925</v>
+        <v>38508</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>70929</v>
+        <v>72276</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07382252696396312</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05284045532691613</v>
+        <v>0.05365357821676747</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0988246816845471</v>
+        <v>0.1007013246591994</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>164</v>
@@ -8658,19 +8658,19 @@
         <v>129461</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>112363</v>
+        <v>110782</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>150177</v>
+        <v>150481</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1683021219129608</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1460746519988984</v>
+        <v>0.1440196735363617</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1952339785371662</v>
+        <v>0.1956288561656003</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>205</v>
@@ -8679,19 +8679,19 @@
         <v>182445</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>158338</v>
+        <v>158780</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>209882</v>
+        <v>210568</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1226981994279206</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.106486114484504</v>
+        <v>0.1067833734443147</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1411502844984363</v>
+        <v>0.141611958378813</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>664739</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>646794</v>
+        <v>645447</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>679798</v>
+        <v>679215</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9261774730360368</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9011753183154541</v>
+        <v>0.8992986753408004</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9471595446730848</v>
+        <v>0.9463464217832326</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>792</v>
@@ -8729,19 +8729,19 @@
         <v>639754</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>619038</v>
+        <v>618734</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>656852</v>
+        <v>658433</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8316978780870392</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8047660214628339</v>
+        <v>0.8043711438343997</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8539253480011014</v>
+        <v>0.8559803264636384</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1348</v>
@@ -8750,19 +8750,19 @@
         <v>1304493</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1277056</v>
+        <v>1276370</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1328600</v>
+        <v>1328158</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8773018005720793</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8588497155015637</v>
+        <v>0.8583880416211873</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.893513885515496</v>
+        <v>0.8932166265556853</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>10907</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5666</v>
+        <v>5219</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18986</v>
+        <v>18629</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01366644682234154</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007099460945601471</v>
+        <v>0.006539855824742145</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0237901458308026</v>
+        <v>0.02334217014873311</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>56</v>
@@ -8875,19 +8875,19 @@
         <v>43168</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>32423</v>
+        <v>32295</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>54519</v>
+        <v>55880</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.05197181100959095</v>
+        <v>0.05197181100959096</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0390356230249668</v>
+        <v>0.03888084109439693</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06563785133910344</v>
+        <v>0.06727536756659987</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>67</v>
@@ -8896,19 +8896,19 @@
         <v>54075</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>42277</v>
+        <v>41553</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>68894</v>
+        <v>68515</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03320174997102724</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0259581011243647</v>
+        <v>0.02551322313715419</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04230039608607146</v>
+        <v>0.04206754446908903</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>787165</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>779086</v>
+        <v>779443</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>792406</v>
+        <v>792853</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9863335531776583</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9762098541691978</v>
+        <v>0.976657829851267</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9929005390543986</v>
+        <v>0.993460144175258</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1005</v>
@@ -8946,19 +8946,19 @@
         <v>787441</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>776090</v>
+        <v>774729</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>798186</v>
+        <v>798314</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.948028188990409</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9343621486608963</v>
+        <v>0.9327246324334</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9609643769750332</v>
+        <v>0.9611191589056031</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1756</v>
@@ -8967,19 +8967,19 @@
         <v>1574606</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1559787</v>
+        <v>1560166</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1586404</v>
+        <v>1587128</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9667982500289727</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9576996039139285</v>
+        <v>0.957932455530911</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9740418988756353</v>
+        <v>0.9744867768628457</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>160263</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>133585</v>
+        <v>136598</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>189282</v>
+        <v>188700</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04542497662309362</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03786351220285165</v>
+        <v>0.03871754137461665</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05365030135680382</v>
+        <v>0.05348538036224133</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>615</v>
@@ -9092,19 +9092,19 @@
         <v>422455</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>389271</v>
+        <v>388796</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>457652</v>
+        <v>458670</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1132817896216601</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1043835923584472</v>
+        <v>0.1042560515920733</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1227200848699631</v>
+        <v>0.1229930431725637</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>771</v>
@@ -9113,19 +9113,19 @@
         <v>582717</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>539596</v>
+        <v>541488</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>627146</v>
+        <v>626243</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.08029384148151097</v>
+        <v>0.08029384148151099</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07435207603476442</v>
+        <v>0.07461281099449839</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08641582554305552</v>
+        <v>0.08629134331677588</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3367810</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3338791</v>
+        <v>3339373</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3394488</v>
+        <v>3391475</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9545750233769064</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9463496986431958</v>
+        <v>0.9465146196377585</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.962136487797148</v>
+        <v>0.9612824586253834</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4740</v>
@@ -9163,19 +9163,19 @@
         <v>3306783</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3271586</v>
+        <v>3270568</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3339967</v>
+        <v>3340442</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8867182103783399</v>
+        <v>0.88671821037834</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8772799151300371</v>
+        <v>0.8770069568274363</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.895616407641553</v>
+        <v>0.895743948407927</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7956</v>
@@ -9184,19 +9184,19 @@
         <v>6674593</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6630164</v>
+        <v>6631067</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6717714</v>
+        <v>6715822</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9197061585184889</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9135841744569443</v>
+        <v>0.9137086566832242</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9256479239652353</v>
+        <v>0.9253871890055015</v>
       </c>
     </row>
     <row r="30">
